--- a/biology/Botanique/Syngonium/Syngonium.xlsx
+++ b/biology/Botanique/Syngonium/Syngonium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syngonium est un genre de plantes de la famille des Aracées.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (16 avril 2022)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (16 avril 2022) :
 Syngonium angustatum Schott
 Syngonium armigerum (Standl. &amp; L.O. Williams) Croat
 Syngonium atrovirens G.S. Bunting
@@ -548,11 +562,11 @@
 Syngonium triphyllum Birdsey ex Croat
 Syngonium wendlandii Schott
 Syngonium yurimaguense Engl.
-Selon ITIS      (16 avril 2022)[2] :
+Selon ITIS      (16 avril 2022) :
 Syngonium angustatum Schott
 Syngonium auritum (L.) Schott
 Syngonium podophyllum Schott
-Selon World Checklist of Selected Plant Families (WCSP)  (16 avril 2022)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (16 avril 2022) :
 Syngonium adsettiorum Croat, O.Ortiz &amp; J.S.Harrison (2019)
 Syngonium angustatum Schott (1858)
 Syngonium armigerum (Standl. &amp; L.O.Williams) Croat (1981 publ. 1982)
@@ -594,14 +608,14 @@
 Syngonium triphyllum Birdsey ex Croat (1981 publ. 1982)
 Syngonium wendlandii Schott (1858)
 Syngonium yurimaguense Engl. (1905)
-Selon NCBI  (16 avril 2022)[4] :
+Selon NCBI  (16 avril 2022) :
 Syngonium angustatum Schott
 Syngonium auritum (L.) Schott
 Syngonium erythrophyllum Birdsey ex G.S.Bunting, 1966
 Syngonium podophyllum Schott
 Syngonium triphyllum Birdsey ex Croat
 Syngonium wendlandii Schott
-Selon The Plant List            (16 avril 2022)[5] :
+Selon The Plant List            (16 avril 2022) :
 Syngonium angustatum Schott
 Syngonium angustifolium Schott
 Syngonium armigerum (Standl. &amp; L.O.Williams) Croat
@@ -637,7 +651,7 @@
 Syngonium triphyllum Birdsey ex Croat
 Syngonium wendlandii Schott
 Syngonium yurimaguense Engl.
-Selon Tropicos                                           (16 avril 2022)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (16 avril 2022) (Attention liste brute contenant possiblement des synonymes) :
 Syngonium adsettiorum Croat, O. Ortiz &amp; J.S. Harrison
 Syngonium affine Schott
 Syngonium albolineatum W. Bull
